--- a/TestData/Web_POS/Billing/add_to_cart_test_data.xlsx
+++ b/TestData/Web_POS/Billing/add_to_cart_test_data.xlsx
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>tax_invoice</t>
   </si>
   <si>
     <t>TC_01</t>
@@ -466,8 +469,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A10">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="I1">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -546,22 +549,25 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>123456</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2">
         <v>123456</v>
@@ -573,42 +579,42 @@
         <v>500</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="3">
         <v>45384</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2">
         <v>123456</v>
@@ -620,42 +626,42 @@
         <v>500</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3">
         <v>45384</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>123456</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
         <v>123456</v>
@@ -667,42 +673,42 @@
         <v>300</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="3">
         <v>45384</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>123456</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2">
         <v>123456</v>
@@ -714,42 +720,42 @@
         <v>400</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="3">
         <v>45384</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>123456</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
@@ -761,42 +767,42 @@
         <v>800</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="3">
         <v>45384</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>123456</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2">
         <v>123456</v>
@@ -808,42 +814,42 @@
         <v>600</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="3">
         <v>45384</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
@@ -855,42 +861,42 @@
         <v>600</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="3">
         <v>45384</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>123456</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2">
         <v>123456</v>
@@ -902,42 +908,42 @@
         <v>600</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="3">
         <v>45384</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2">
         <v>123456</v>
@@ -949,42 +955,42 @@
         <v>600</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="3">
         <v>45384</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
         <v>123456</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2">
         <v>123456</v>
@@ -996,42 +1002,42 @@
         <v>600</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="3">
         <v>45384</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
         <v>123456</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2">
         <v>123456</v>
@@ -1043,42 +1049,42 @@
         <v>600</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" s="3">
         <v>45384</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2">
         <v>123456</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2">
         <v>123456</v>
@@ -1090,42 +1096,42 @@
         <v>600</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" s="3">
         <v>45384</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2">
         <v>123456</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
@@ -1137,42 +1143,42 @@
         <v>600</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" s="3">
         <v>45384</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
         <v>123456</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2">
         <v>123456</v>
@@ -1184,42 +1190,42 @@
         <v>600</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" s="3">
         <v>45384</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2">
         <v>123456</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2">
         <v>123456</v>
@@ -1231,42 +1237,42 @@
         <v>600</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="3">
         <v>45384</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2">
         <v>123456</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2">
         <v>123456</v>
@@ -1278,42 +1284,42 @@
         <v>600</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" s="3">
         <v>45384</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
         <v>123456</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2">
         <v>123456</v>
@@ -1325,42 +1331,42 @@
         <v>600</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" s="3">
         <v>45384</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2">
         <v>123456</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2">
         <v>123456</v>
@@ -1372,25 +1378,25 @@
         <v>600</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" s="3">
         <v>45384</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="14.25">
@@ -1554,7 +1560,7 @@
       <c r="F38" s="2"/>
       <c r="I38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -1573,7 +1579,7 @@
       <c r="F39" s="2"/>
       <c r="I39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -1588,7 +1594,7 @@
       <c r="F40" s="2"/>
       <c r="I40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -1603,7 +1609,7 @@
       <c r="F41" s="2"/>
       <c r="I41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -1618,7 +1624,7 @@
       <c r="F42" s="2"/>
       <c r="I42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -1633,7 +1639,7 @@
       <c r="F43" s="2"/>
       <c r="I43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -1648,7 +1654,7 @@
       <c r="F44" s="2"/>
       <c r="I44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -1663,7 +1669,7 @@
       <c r="F45" s="2"/>
       <c r="I45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -1678,7 +1684,7 @@
       <c r="F46" s="2"/>
       <c r="I46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1693,7 +1699,7 @@
       <c r="F47" s="2"/>
       <c r="I47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>

--- a/TestData/Web_POS/Billing/add_to_cart_test_data.xlsx
+++ b/TestData/Web_POS/Billing/add_to_cart_test_data.xlsx
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>usertwo_p1</t>
+  </si>
+  <si>
+    <t>2000 : 1</t>
+  </si>
+  <si>
+    <t>500 : 1</t>
   </si>
   <si>
     <t>Index9QA</t>
@@ -469,8 +475,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="I1">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -572,37 +578,37 @@
       <c r="F2" s="2">
         <v>123456</v>
       </c>
-      <c r="G2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>500</v>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="3">
         <v>45384</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -626,30 +632,30 @@
         <v>500</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3">
         <v>45384</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -673,30 +679,30 @@
         <v>300</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L4" s="3">
         <v>45384</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -720,33 +726,33 @@
         <v>400</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" s="3">
         <v>45384</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -755,7 +761,7 @@
         <v>123456</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
@@ -767,30 +773,30 @@
         <v>800</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L6" s="3">
         <v>45384</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -814,33 +820,33 @@
         <v>600</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L7" s="3">
         <v>45384</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -849,7 +855,7 @@
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
@@ -861,30 +867,30 @@
         <v>600</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L8" s="3">
         <v>45384</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -908,33 +914,33 @@
         <v>600</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L9" s="3">
         <v>45384</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -943,7 +949,7 @@
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2">
         <v>123456</v>
@@ -955,30 +961,30 @@
         <v>600</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L10" s="3">
         <v>45384</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -1002,30 +1008,30 @@
         <v>600</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L11" s="3">
         <v>45384</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -1049,30 +1055,30 @@
         <v>600</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L12" s="3">
         <v>45384</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1096,33 +1102,33 @@
         <v>600</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L13" s="3">
         <v>45384</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -1131,7 +1137,7 @@
         <v>123456</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
@@ -1143,30 +1149,30 @@
         <v>600</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L14" s="3">
         <v>45384</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -1190,33 +1196,33 @@
         <v>600</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L15" s="3">
         <v>45384</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1225,7 +1231,7 @@
         <v>123456</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2">
         <v>123456</v>
@@ -1237,30 +1243,30 @@
         <v>600</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L16" s="3">
         <v>45384</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -1284,30 +1290,30 @@
         <v>600</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L17" s="3">
         <v>45384</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -1331,30 +1337,30 @@
         <v>600</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L18" s="3">
         <v>45384</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -1378,25 +1384,25 @@
         <v>600</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L19" s="3">
         <v>45384</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="14.25">
@@ -1560,7 +1566,7 @@
       <c r="F38" s="2"/>
       <c r="I38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -1579,7 +1585,7 @@
       <c r="F39" s="2"/>
       <c r="I39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -1594,7 +1600,7 @@
       <c r="F40" s="2"/>
       <c r="I40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -1609,7 +1615,7 @@
       <c r="F41" s="2"/>
       <c r="I41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -1624,7 +1630,7 @@
       <c r="F42" s="2"/>
       <c r="I42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -1639,7 +1645,7 @@
       <c r="F43" s="2"/>
       <c r="I43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -1654,7 +1660,7 @@
       <c r="F44" s="2"/>
       <c r="I44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -1669,7 +1675,7 @@
       <c r="F45" s="2"/>
       <c r="I45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -1684,7 +1690,7 @@
       <c r="F46" s="2"/>
       <c r="I46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1699,7 +1705,7 @@
       <c r="F47" s="2"/>
       <c r="I47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>

--- a/TestData/Web_POS/Billing/add_to_cart_test_data.xlsx
+++ b/TestData/Web_POS/Billing/add_to_cart_test_data.xlsx
@@ -72,61 +72,70 @@
     <t>TC_01</t>
   </si>
   <si>
+    <t>492260724jMt</t>
+  </si>
+  <si>
+    <t>admin@sunrise.com</t>
+  </si>
+  <si>
+    <t>B_add_to_cart_user1_p1@gmail.com</t>
+  </si>
+  <si>
+    <t>2000 : 1</t>
+  </si>
+  <si>
+    <t>500 : 1</t>
+  </si>
+  <si>
+    <t>Index9QA</t>
+  </si>
+  <si>
+    <t>8906118410781 : 1</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Alexa67 : 1</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>30726062464i</t>
+  </si>
+  <si>
+    <t>zwshashank.agrawal@teampureplay.com</t>
+  </si>
+  <si>
+    <t>userone_p8</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
     <t>307260624WoJ</t>
   </si>
   <si>
-    <t>zwshashank.agrawal@teampureplay.com</t>
-  </si>
-  <si>
     <t>usertwo_p1</t>
-  </si>
-  <si>
-    <t>2000 : 1</t>
-  </si>
-  <si>
-    <t>500 : 1</t>
-  </si>
-  <si>
-    <t>Index9QA</t>
-  </si>
-  <si>
-    <t>8906118410781 : 1</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>Alexa67 : 1</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>TC_05</t>
-  </si>
-  <si>
-    <t>30726062464i</t>
-  </si>
-  <si>
-    <t>userone_p8</t>
-  </si>
-  <si>
-    <t>TC_06</t>
   </si>
   <si>
     <t>TC_07</t>
@@ -475,8 +484,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A4">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -484,7 +493,7 @@
     <col min="2" max="2" width="19.28516" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="19.28516" customWidth="1"/>
-    <col min="5" max="5" width="18.57031" customWidth="1"/>
+    <col min="5" max="5" width="36.28516" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85547" customWidth="1"/>
     <col min="7" max="7" width="16.71094" customWidth="1"/>
     <col min="8" max="8" width="19.14063" customWidth="1"/>
@@ -625,11 +634,11 @@
       <c r="F3" s="2">
         <v>123456</v>
       </c>
-      <c r="G3">
-        <v>1000</v>
-      </c>
-      <c r="H3">
-        <v>500</v>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -672,11 +681,11 @@
       <c r="F4" s="2">
         <v>123456</v>
       </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-      <c r="H4">
-        <v>300</v>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>22</v>
@@ -719,11 +728,11 @@
       <c r="F5" s="2">
         <v>123456</v>
       </c>
-      <c r="G5">
-        <v>1000</v>
-      </c>
-      <c r="H5">
-        <v>400</v>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>22</v>
@@ -755,22 +764,22 @@
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>123456</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
       </c>
-      <c r="G6">
-        <v>1000</v>
-      </c>
-      <c r="H6">
-        <v>800</v>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>22</v>
@@ -796,19 +805,19 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>123456</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2">
         <v>123456</v>
@@ -843,19 +852,19 @@
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
@@ -890,19 +899,19 @@
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>123456</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2">
         <v>123456</v>
@@ -937,19 +946,19 @@
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2">
         <v>123456</v>
@@ -984,7 +993,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -1001,17 +1010,17 @@
       <c r="F11" s="2">
         <v>123456</v>
       </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-      <c r="H11">
-        <v>600</v>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>24</v>
@@ -1031,7 +1040,7 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -1048,17 +1057,17 @@
       <c r="F12" s="2">
         <v>123456</v>
       </c>
-      <c r="G12">
-        <v>1000</v>
-      </c>
-      <c r="H12">
-        <v>600</v>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>24</v>
@@ -1078,7 +1087,7 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1095,17 +1104,17 @@
       <c r="F13" s="2">
         <v>123456</v>
       </c>
-      <c r="G13">
-        <v>1000</v>
-      </c>
-      <c r="H13">
-        <v>600</v>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>24</v>
@@ -1125,19 +1134,19 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>123456</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
@@ -1152,7 +1161,7 @@
         <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>24</v>
@@ -1172,19 +1181,19 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>123456</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2">
         <v>123456</v>
@@ -1199,7 +1208,7 @@
         <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>24</v>
@@ -1219,19 +1228,19 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>123456</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2">
         <v>123456</v>
@@ -1246,7 +1255,7 @@
         <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>24</v>
@@ -1266,7 +1275,7 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -1283,11 +1292,11 @@
       <c r="F17" s="2">
         <v>123456</v>
       </c>
-      <c r="G17">
-        <v>1000</v>
-      </c>
-      <c r="H17">
-        <v>600</v>
+      <c r="G17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>22</v>
@@ -1313,7 +1322,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -1330,11 +1339,11 @@
       <c r="F18" s="2">
         <v>123456</v>
       </c>
-      <c r="G18">
-        <v>1000</v>
-      </c>
-      <c r="H18">
-        <v>600</v>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>22</v>
@@ -1360,7 +1369,7 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -1377,11 +1386,11 @@
       <c r="F19" s="2">
         <v>123456</v>
       </c>
-      <c r="G19">
-        <v>1000</v>
-      </c>
-      <c r="H19">
-        <v>600</v>
+      <c r="G19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>22</v>

--- a/TestData/Web_POS/Billing/add_to_cart_test_data.xlsx
+++ b/TestData/Web_POS/Billing/add_to_cart_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indexnine\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>usertwo_p1</t>
+  </si>
+  <si>
+    <t>2000 : 1</t>
+  </si>
+  <si>
+    <t>500 : 1</t>
   </si>
   <si>
     <t>Index9QA</t>
@@ -469,8 +475,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="I1">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A5">
+      <selection activeCell="G2" sqref="G2:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -572,37 +578,37 @@
       <c r="F2" s="2">
         <v>123456</v>
       </c>
-      <c r="G2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>500</v>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="3">
         <v>45384</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -619,37 +625,37 @@
       <c r="F3" s="2">
         <v>123456</v>
       </c>
-      <c r="G3">
-        <v>1000</v>
-      </c>
-      <c r="H3">
-        <v>500</v>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3">
         <v>45384</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -666,37 +672,37 @@
       <c r="F4" s="2">
         <v>123456</v>
       </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-      <c r="H4">
-        <v>300</v>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L4" s="3">
         <v>45384</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -713,40 +719,40 @@
       <c r="F5" s="2">
         <v>123456</v>
       </c>
-      <c r="G5">
-        <v>1000</v>
-      </c>
-      <c r="H5">
-        <v>400</v>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" s="3">
         <v>45384</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -755,42 +761,42 @@
         <v>123456</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
       </c>
-      <c r="G6">
-        <v>1000</v>
-      </c>
-      <c r="H6">
-        <v>800</v>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L6" s="3">
         <v>45384</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -807,40 +813,40 @@
       <c r="F7" s="2">
         <v>123456</v>
       </c>
-      <c r="G7">
-        <v>1000</v>
-      </c>
-      <c r="H7">
-        <v>600</v>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L7" s="3">
         <v>45384</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -849,42 +855,42 @@
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
       </c>
-      <c r="G8">
-        <v>1000</v>
-      </c>
-      <c r="H8">
-        <v>600</v>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L8" s="3">
         <v>45384</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -901,40 +907,40 @@
       <c r="F9" s="2">
         <v>123456</v>
       </c>
-      <c r="G9">
-        <v>1000</v>
-      </c>
-      <c r="H9">
-        <v>600</v>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L9" s="3">
         <v>45384</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -943,42 +949,42 @@
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2">
         <v>123456</v>
       </c>
-      <c r="G10">
-        <v>1000</v>
-      </c>
-      <c r="H10">
-        <v>600</v>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L10" s="3">
         <v>45384</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -995,37 +1001,37 @@
       <c r="F11" s="2">
         <v>123456</v>
       </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-      <c r="H11">
-        <v>600</v>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L11" s="3">
         <v>45384</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -1042,37 +1048,37 @@
       <c r="F12" s="2">
         <v>123456</v>
       </c>
-      <c r="G12">
-        <v>1000</v>
-      </c>
-      <c r="H12">
-        <v>600</v>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L12" s="3">
         <v>45384</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1089,40 +1095,40 @@
       <c r="F13" s="2">
         <v>123456</v>
       </c>
-      <c r="G13">
-        <v>1000</v>
-      </c>
-      <c r="H13">
-        <v>600</v>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L13" s="3">
         <v>45384</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -1131,42 +1137,42 @@
         <v>123456</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
       </c>
-      <c r="G14">
-        <v>1000</v>
-      </c>
-      <c r="H14">
-        <v>600</v>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L14" s="3">
         <v>45384</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -1183,40 +1189,40 @@
       <c r="F15" s="2">
         <v>123456</v>
       </c>
-      <c r="G15">
-        <v>1000</v>
-      </c>
-      <c r="H15">
-        <v>600</v>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L15" s="3">
         <v>45384</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1225,42 +1231,42 @@
         <v>123456</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2">
         <v>123456</v>
       </c>
-      <c r="G16">
-        <v>1000</v>
-      </c>
-      <c r="H16">
-        <v>600</v>
+      <c r="G16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L16" s="3">
         <v>45384</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -1277,37 +1283,37 @@
       <c r="F17" s="2">
         <v>123456</v>
       </c>
-      <c r="G17">
-        <v>1000</v>
-      </c>
-      <c r="H17">
-        <v>600</v>
+      <c r="G17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L17" s="3">
         <v>45384</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -1324,37 +1330,37 @@
       <c r="F18" s="2">
         <v>123456</v>
       </c>
-      <c r="G18">
-        <v>1000</v>
-      </c>
-      <c r="H18">
-        <v>600</v>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L18" s="3">
         <v>45384</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -1371,32 +1377,32 @@
       <c r="F19" s="2">
         <v>123456</v>
       </c>
-      <c r="G19">
-        <v>1000</v>
-      </c>
-      <c r="H19">
-        <v>600</v>
+      <c r="G19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L19" s="3">
         <v>45384</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="14.25">
@@ -1560,7 +1566,7 @@
       <c r="F38" s="2"/>
       <c r="I38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -1579,7 +1585,7 @@
       <c r="F39" s="2"/>
       <c r="I39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -1594,7 +1600,7 @@
       <c r="F40" s="2"/>
       <c r="I40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -1609,7 +1615,7 @@
       <c r="F41" s="2"/>
       <c r="I41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -1624,7 +1630,7 @@
       <c r="F42" s="2"/>
       <c r="I42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -1639,7 +1645,7 @@
       <c r="F43" s="2"/>
       <c r="I43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -1654,7 +1660,7 @@
       <c r="F44" s="2"/>
       <c r="I44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -1669,7 +1675,7 @@
       <c r="F45" s="2"/>
       <c r="I45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -1684,7 +1690,7 @@
       <c r="F46" s="2"/>
       <c r="I46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1699,7 +1705,7 @@
       <c r="F47" s="2"/>
       <c r="I47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>

--- a/TestData/Web_POS/Billing/add_to_cart_test_data.xlsx
+++ b/TestData/Web_POS/Billing/add_to_cart_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indexnine\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,13 +72,13 @@
     <t>TC_01</t>
   </si>
   <si>
-    <t>492260724jMt</t>
-  </si>
-  <si>
-    <t>admin@sunrise.com</t>
-  </si>
-  <si>
-    <t>B_add_to_cart_user1_p1@gmail.com</t>
+    <t>307260624WoJ</t>
+  </si>
+  <si>
+    <t>zwshashank.agrawal@teampureplay.com</t>
+  </si>
+  <si>
+    <t>usertwo_p1</t>
   </si>
   <si>
     <t>2000 : 1</t>
@@ -123,19 +123,10 @@
     <t>30726062464i</t>
   </si>
   <si>
-    <t>zwshashank.agrawal@teampureplay.com</t>
-  </si>
-  <si>
     <t>userone_p8</t>
   </si>
   <si>
     <t>TC_06</t>
-  </si>
-  <si>
-    <t>307260624WoJ</t>
-  </si>
-  <si>
-    <t>usertwo_p1</t>
   </si>
   <si>
     <t>TC_07</t>
@@ -484,8 +475,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A4">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A5">
+      <selection activeCell="G2" sqref="G2:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -493,7 +484,7 @@
     <col min="2" max="2" width="19.28516" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="19.28516" customWidth="1"/>
-    <col min="5" max="5" width="36.28516" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.57031" customWidth="1"/>
     <col min="6" max="6" width="14.85547" customWidth="1"/>
     <col min="7" max="7" width="16.71094" customWidth="1"/>
     <col min="8" max="8" width="19.14063" customWidth="1"/>
@@ -764,13 +755,13 @@
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
@@ -805,28 +796,28 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>123456</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2">
         <v>123456</v>
       </c>
-      <c r="G7">
-        <v>1000</v>
-      </c>
-      <c r="H7">
-        <v>600</v>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>22</v>
@@ -852,28 +843,28 @@
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" s="2">
         <v>123456</v>
       </c>
-      <c r="G8">
-        <v>1000</v>
-      </c>
-      <c r="H8">
-        <v>600</v>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>22</v>
@@ -899,28 +890,28 @@
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>123456</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2">
         <v>123456</v>
       </c>
-      <c r="G9">
-        <v>1000</v>
-      </c>
-      <c r="H9">
-        <v>600</v>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>22</v>
@@ -946,28 +937,28 @@
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" s="2">
         <v>123456</v>
       </c>
-      <c r="G10">
-        <v>1000</v>
-      </c>
-      <c r="H10">
-        <v>600</v>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>22</v>
@@ -993,7 +984,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -1020,7 +1011,7 @@
         <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>24</v>
@@ -1040,7 +1031,7 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -1067,7 +1058,7 @@
         <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>24</v>
@@ -1087,7 +1078,7 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1114,7 +1105,7 @@
         <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>24</v>
@@ -1134,34 +1125,34 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F14" s="2">
         <v>123456</v>
       </c>
-      <c r="G14">
-        <v>1000</v>
-      </c>
-      <c r="H14">
-        <v>600</v>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>24</v>
@@ -1181,34 +1172,34 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
         <v>123456</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2">
         <v>123456</v>
       </c>
-      <c r="G15">
-        <v>1000</v>
-      </c>
-      <c r="H15">
-        <v>600</v>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>24</v>
@@ -1228,34 +1219,34 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F16" s="2">
         <v>123456</v>
       </c>
-      <c r="G16">
-        <v>1000</v>
-      </c>
-      <c r="H16">
-        <v>600</v>
+      <c r="G16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>24</v>
@@ -1275,7 +1266,7 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -1322,7 +1313,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -1369,7 +1360,7 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
